--- a/result/ck_adjust.xlsx
+++ b/result/ck_adjust.xlsx
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -936,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -994,7 +994,7 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1197,7 +1197,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1400,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1574,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:9">
